--- a/data/foo.xlsx
+++ b/data/foo.xlsx
@@ -414,16 +414,16 @@
         <v>43009</v>
       </c>
       <c r="B2">
-        <v>0.5687552470716223</v>
+        <v>-1.573653329174053</v>
       </c>
       <c r="C2">
-        <v>1.405605095669757</v>
+        <v>-0.04017842605245297</v>
       </c>
       <c r="D2">
-        <v>-0.3404077224528481</v>
+        <v>0.004887298380431081</v>
       </c>
       <c r="E2">
-        <v>-0.592324907172266</v>
+        <v>-0.2670840629110742</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,16 +431,16 @@
         <v>43010</v>
       </c>
       <c r="B3">
-        <v>-0.7344164998865668</v>
+        <v>0.8553672342395204</v>
       </c>
       <c r="C3">
-        <v>-2.147403312376924</v>
+        <v>-1.566385082543409</v>
       </c>
       <c r="D3">
-        <v>1.126979036386949</v>
+        <v>-1.051637252230476</v>
       </c>
       <c r="E3">
-        <v>-0.01264498782376648</v>
+        <v>-1.490904843763303</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,16 +448,16 @@
         <v>43011</v>
       </c>
       <c r="B4">
-        <v>-0.01283760876074332</v>
+        <v>-0.3643529737586025</v>
       </c>
       <c r="C4">
-        <v>0.4481115988055855</v>
+        <v>1.540079768384631</v>
       </c>
       <c r="D4">
-        <v>0.5161410828861029</v>
+        <v>3.29192749101215</v>
       </c>
       <c r="E4">
-        <v>0.05557252980052437</v>
+        <v>0.008567215740503432</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,16 +465,16 @@
         <v>43012</v>
       </c>
       <c r="B5">
-        <v>0.1914909463329267</v>
+        <v>-2.748075568717917</v>
       </c>
       <c r="C5">
-        <v>1.46173961791572</v>
+        <v>-1.264190634434456</v>
       </c>
       <c r="D5">
-        <v>1.623121560711407</v>
+        <v>-0.8481332662037754</v>
       </c>
       <c r="E5">
-        <v>-0.9544831440705258</v>
+        <v>-0.4064988892995662</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -482,16 +482,16 @@
         <v>43013</v>
       </c>
       <c r="B6">
-        <v>0.1632382584392251</v>
+        <v>0.4521966208987208</v>
       </c>
       <c r="C6">
-        <v>1.475710051237403</v>
+        <v>-2.253306240480479</v>
       </c>
       <c r="D6">
-        <v>-0.4086241439348701</v>
+        <v>-0.1911268066608429</v>
       </c>
       <c r="E6">
-        <v>2.46443792585401</v>
+        <v>1.459671659898146</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,16 +499,16 @@
         <v>43014</v>
       </c>
       <c r="B7">
-        <v>-0.1742511184815616</v>
+        <v>-0.1289398771369876</v>
       </c>
       <c r="C7">
-        <v>0.2462646879463029</v>
+        <v>0.8650045027156944</v>
       </c>
       <c r="D7">
-        <v>0.2724513053925298</v>
+        <v>-0.3984140389070378</v>
       </c>
       <c r="E7">
-        <v>-0.597095651019688</v>
+        <v>-0.1853512436846873</v>
       </c>
     </row>
   </sheetData>
